--- a/brewnalysis_test_data.xlsx
+++ b/brewnalysis_test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bertille/brewnalysis/brewnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6797AB6-1AAC-4AC8-AFAD-E9B5C14CE74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054D3D9F-F81E-EE4C-A9E5-4C4D77576250}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="860" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>pH</t>
-  </si>
-  <si>
-    <t>Cell count Dilution factor (10 is standard)</t>
   </si>
   <si>
     <t>Cell count 1 live cells</t>
@@ -111,12 +108,15 @@
   <si>
     <t>beer_e</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Dilution factor </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -125,6 +125,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,11 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="19" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,15 +481,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="22" width="21.5703125" customWidth="1"/>
+    <col min="1" max="22" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,31 +517,31 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -542,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2">
         <v>44001</v>
@@ -581,9 +589,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -592,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2">
         <v>44002</v>
@@ -610,9 +618,9 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -621,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
         <v>44003</v>
@@ -639,9 +647,9 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -650,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>44004</v>
@@ -689,9 +697,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -700,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2">
         <v>44005</v>
@@ -739,9 +747,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -750,7 +758,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2">
         <v>44006</v>
@@ -768,9 +776,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -779,7 +787,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>44007</v>
@@ -797,9 +805,9 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -808,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
         <v>44012</v>
@@ -847,9 +855,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -858,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2">
         <v>44013</v>
@@ -897,9 +905,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -908,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2">
         <v>44014</v>
@@ -947,9 +955,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -958,7 +966,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2">
         <v>44016</v>
@@ -997,9 +1005,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -1008,7 +1016,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2">
         <v>44018</v>
@@ -1047,9 +1055,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -1058,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2">
         <v>44019</v>
@@ -1097,9 +1105,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -1108,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
         <v>44029</v>
@@ -1147,9 +1155,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -1158,7 +1166,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2">
         <v>44030</v>
@@ -1197,9 +1205,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -1208,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2">
         <v>44031</v>
@@ -1247,9 +1255,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -1258,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2">
         <v>44032</v>
@@ -1297,9 +1305,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
@@ -1308,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2">
         <v>44033</v>
@@ -1347,9 +1355,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -1358,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2">
         <v>44035</v>
@@ -1397,9 +1405,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -1408,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2">
         <v>44037</v>
@@ -1447,9 +1455,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>4</v>
@@ -1458,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2">
         <v>44042</v>
@@ -1497,9 +1505,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -1508,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2">
         <v>44043</v>
@@ -1547,9 +1555,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
@@ -1558,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2">
         <v>44044</v>
@@ -1597,9 +1605,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>4</v>
@@ -1608,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2">
         <v>44045</v>
@@ -1647,9 +1655,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
@@ -1658,7 +1666,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2">
         <v>44046</v>
@@ -1697,9 +1705,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>4</v>
@@ -1708,7 +1716,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2">
         <v>44047</v>
@@ -1747,9 +1755,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>4</v>
@@ -1758,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2">
         <v>44049</v>
@@ -1776,9 +1784,9 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>5</v>
@@ -1787,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="2">
         <v>44092</v>
@@ -1826,9 +1834,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -1837,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2">
         <v>44093</v>
@@ -1876,9 +1884,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1">
         <v>5</v>
@@ -1887,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="2">
         <v>44094</v>
@@ -1926,9 +1934,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1">
         <v>5</v>
@@ -1937,7 +1945,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="2">
         <v>44095</v>
@@ -1976,9 +1984,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1">
         <v>5</v>
@@ -1987,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="2">
         <v>44096</v>
@@ -2026,9 +2034,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1">
         <v>5</v>
@@ -2037,7 +2045,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2">
         <v>44097</v>
@@ -2076,9 +2084,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="1">
         <v>5</v>
@@ -2087,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2">
         <v>44098</v>
@@ -2105,9 +2113,9 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" s="1">
         <v>5</v>
@@ -2116,7 +2124,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2">
         <v>44099</v>
@@ -2134,9 +2142,9 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
@@ -2145,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2">
         <v>43818</v>
@@ -2184,9 +2192,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -2195,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2">
         <v>43819</v>
@@ -2234,9 +2242,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -2245,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2">
         <v>43820</v>
@@ -2284,9 +2292,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -2295,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2">
         <v>43821</v>
@@ -2313,9 +2321,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -2324,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" s="2">
         <v>43822</v>
@@ -2363,9 +2371,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -2374,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" s="2">
         <v>43838</v>
@@ -2413,9 +2421,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -2424,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="2">
         <v>43839</v>
@@ -2463,9 +2471,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -2474,7 +2482,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" s="2">
         <v>43842</v>
@@ -2513,9 +2521,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -2524,7 +2532,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" s="2">
         <v>43843</v>
@@ -2563,9 +2571,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" s="1">
         <v>2</v>
@@ -2574,7 +2582,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E46" s="2">
         <v>43844</v>
@@ -2613,9 +2621,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
@@ -2624,7 +2632,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47" s="2">
         <v>43845</v>
@@ -2663,9 +2671,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
@@ -2674,7 +2682,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" s="2">
         <v>43846</v>
@@ -2713,9 +2721,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" s="1">
         <v>2</v>
@@ -2724,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="2">
         <v>43847</v>
@@ -2742,9 +2750,9 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" s="1">
         <v>3</v>
@@ -2753,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2">
         <v>44007</v>
@@ -2792,9 +2800,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51" s="1">
         <v>3</v>
@@ -2803,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2">
         <v>44008</v>
@@ -2842,9 +2850,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
@@ -2853,7 +2861,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2">
         <v>44009</v>
@@ -2892,9 +2900,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
@@ -2903,7 +2911,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2">
         <v>44012</v>
@@ -2942,9 +2950,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
@@ -2953,7 +2961,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2">
         <v>44013</v>
@@ -2992,9 +3000,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55" s="1">
         <v>3</v>
@@ -3003,7 +3011,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E55" s="2">
         <v>44014</v>
@@ -3042,9 +3050,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" s="1">
         <v>4</v>
@@ -3053,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" s="2">
         <v>44086</v>
@@ -3092,9 +3100,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57" s="1">
         <v>4</v>
@@ -3103,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2">
         <v>44087</v>
@@ -3142,9 +3150,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" s="1">
         <v>4</v>
@@ -3153,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58" s="2">
         <v>44088</v>
@@ -3192,9 +3200,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59" s="1">
         <v>4</v>
@@ -3203,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E59" s="2">
         <v>44089</v>
@@ -3242,9 +3250,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
@@ -3253,7 +3261,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E60" s="2">
         <v>44090</v>
@@ -3292,9 +3300,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1">
         <v>4</v>
@@ -3303,7 +3311,7 @@
         <v>6</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E61" s="2">
         <v>44091</v>
@@ -3342,9 +3350,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62" s="1">
         <v>4</v>
@@ -3353,7 +3361,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E62" s="2">
         <v>44092</v>
@@ -3371,9 +3379,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3382,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63" s="2">
         <v>44097</v>
@@ -3421,9 +3429,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B64" s="1">
         <v>5</v>
@@ -3432,7 +3440,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E64" s="2">
         <v>44098</v>
@@ -3471,9 +3479,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65" s="1">
         <v>5</v>
@@ -3482,7 +3490,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65" s="2">
         <v>44099</v>
@@ -3521,9 +3529,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B66" s="1">
         <v>5</v>
@@ -3532,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E66" s="2">
         <v>44100</v>
@@ -3571,9 +3579,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67" s="1">
         <v>5</v>
@@ -3582,7 +3590,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67" s="2">
         <v>44101</v>
@@ -3621,9 +3629,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68" s="1">
         <v>5</v>
@@ -3632,7 +3640,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68" s="2">
         <v>44102</v>
@@ -3671,9 +3679,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
@@ -3682,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" s="2">
         <v>43942</v>
@@ -3721,9 +3729,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
@@ -3732,7 +3740,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" s="2">
         <v>43939</v>
@@ -3750,9 +3758,9 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
@@ -3761,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71" s="2">
         <v>43941</v>
@@ -3800,9 +3808,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
@@ -3811,7 +3819,7 @@
         <v>5</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72" s="2">
         <v>43942</v>
@@ -3850,9 +3858,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
@@ -3861,7 +3869,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73" s="2">
         <v>43943</v>
@@ -3900,9 +3908,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
@@ -3911,7 +3919,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74" s="2">
         <v>43944</v>
@@ -3950,9 +3958,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B75" s="1">
         <v>2</v>
@@ -3961,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75" s="2">
         <v>44022</v>
@@ -4000,9 +4008,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76" s="1">
         <v>2</v>
@@ -4011,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76" s="2">
         <v>44023</v>
@@ -4050,9 +4058,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B77" s="1">
         <v>2</v>
@@ -4061,7 +4069,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77" s="2">
         <v>44025</v>
@@ -4100,9 +4108,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -4111,7 +4119,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78" s="2">
         <v>44026</v>
@@ -4150,9 +4158,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79" s="1">
         <v>2</v>
@@ -4161,7 +4169,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79" s="2">
         <v>44027</v>
@@ -4200,9 +4208,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B80" s="1">
         <v>2</v>
@@ -4211,7 +4219,7 @@
         <v>7</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="2">
         <v>44028</v>
@@ -4250,9 +4258,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B81" s="1">
         <v>2</v>
@@ -4261,7 +4269,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81" s="2">
         <v>44029</v>
@@ -4279,9 +4287,9 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82" s="1">
         <v>3</v>
@@ -4290,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E82" s="2">
         <v>44070</v>
@@ -4329,9 +4337,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B83" s="1">
         <v>3</v>
@@ -4340,7 +4348,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83" s="2">
         <v>44071</v>
@@ -4358,9 +4366,9 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B84" s="1">
         <v>3</v>
@@ -4369,7 +4377,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84" s="2">
         <v>44072</v>
@@ -4408,9 +4416,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B85" s="1">
         <v>3</v>
@@ -4419,7 +4427,7 @@
         <v>5</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85" s="2">
         <v>44074</v>
@@ -4458,9 +4466,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B86" s="1">
         <v>3</v>
@@ -4469,7 +4477,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E86" s="2">
         <v>44075</v>
@@ -4508,9 +4516,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B87" s="1">
         <v>3</v>
@@ -4519,7 +4527,7 @@
         <v>7</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E87" s="2">
         <v>44076</v>
@@ -4537,9 +4545,9 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B88" s="1">
         <v>3</v>
@@ -4548,7 +4556,7 @@
         <v>8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E88" s="2">
         <v>44077</v>
@@ -4587,9 +4595,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B89" s="1">
         <v>4</v>
@@ -4598,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89" s="2">
         <v>44085</v>
@@ -4637,9 +4645,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B90" s="1">
         <v>4</v>
@@ -4648,7 +4656,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E90" s="2">
         <v>44086</v>
@@ -4687,9 +4695,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B91" s="1">
         <v>4</v>
@@ -4698,7 +4706,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E91" s="2">
         <v>44087</v>
@@ -4737,9 +4745,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B92" s="1">
         <v>4</v>
@@ -4748,7 +4756,7 @@
         <v>4</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92" s="2">
         <v>44088</v>
@@ -4787,9 +4795,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B93" s="1">
         <v>4</v>
@@ -4798,7 +4806,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E93" s="2">
         <v>44089</v>
@@ -4837,9 +4845,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B94" s="1">
         <v>4</v>
@@ -4848,7 +4856,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94" s="2">
         <v>44090</v>
@@ -4887,9 +4895,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B95" s="1">
         <v>4</v>
@@ -4898,7 +4906,7 @@
         <v>7</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95" s="2">
         <v>44091</v>
@@ -4916,9 +4924,9 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B96" s="1">
         <v>5</v>
@@ -4927,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E96" s="2">
         <v>44112</v>
@@ -4966,9 +4974,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B97" s="1">
         <v>5</v>
@@ -4977,7 +4985,7 @@
         <v>2</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E97" s="2">
         <v>44113</v>
@@ -5016,9 +5024,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B98" s="1">
         <v>5</v>
@@ -5027,7 +5035,7 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E98" s="2">
         <v>44114</v>
@@ -5066,9 +5074,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B99" s="1">
         <v>5</v>
@@ -5077,7 +5085,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E99" s="2">
         <v>44115</v>
@@ -5116,9 +5124,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B100" s="1">
         <v>5</v>
@@ -5127,7 +5135,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E100" s="2">
         <v>44116</v>
@@ -5166,9 +5174,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B101" s="1">
         <v>5</v>
@@ -5177,7 +5185,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E101" s="2">
         <v>44117</v>
@@ -5216,9 +5224,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B102" s="1">
         <v>5</v>
@@ -5227,7 +5235,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E102" s="2">
         <v>44118</v>
@@ -5266,9 +5274,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B103" s="1">
         <v>5</v>
@@ -5277,7 +5285,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E103" s="2">
         <v>44119</v>
@@ -5295,9 +5303,9 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B104" s="1">
         <v>1</v>
@@ -5306,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E104" s="2">
         <v>43908</v>
@@ -5345,9 +5353,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B105" s="1">
         <v>1</v>
@@ -5356,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E105" s="2">
         <v>43909</v>
@@ -5395,9 +5403,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -5406,7 +5414,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E106" s="2">
         <v>43910</v>
@@ -5445,9 +5453,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -5456,7 +5464,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E107" s="2">
         <v>43913</v>
@@ -5495,9 +5503,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B108" s="1">
         <v>1</v>
@@ -5506,7 +5514,7 @@
         <v>7</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E108" s="2">
         <v>43914</v>
@@ -5545,9 +5553,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B109" s="1">
         <v>1</v>
@@ -5556,7 +5564,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E109" s="2">
         <v>43915</v>
@@ -5574,9 +5582,9 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B110" s="1">
         <v>2</v>
@@ -5585,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E110" s="2">
         <v>43971</v>
@@ -5624,9 +5632,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B111" s="1">
         <v>2</v>
@@ -5635,7 +5643,7 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E111" s="2">
         <v>43973</v>
@@ -5674,9 +5682,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B112" s="1">
         <v>2</v>
@@ -5685,7 +5693,7 @@
         <v>4</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E112" s="2">
         <v>43974</v>
@@ -5703,9 +5711,9 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B113" s="1">
         <v>2</v>
@@ -5714,7 +5722,7 @@
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E113" s="2">
         <v>43975</v>
@@ -5732,9 +5740,9 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B114" s="1">
         <v>2</v>
@@ -5743,7 +5751,7 @@
         <v>6</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E114" s="2">
         <v>43976</v>
@@ -5761,9 +5769,9 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B115" s="1">
         <v>2</v>
@@ -5772,7 +5780,7 @@
         <v>7</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E115" s="2">
         <v>43977</v>
@@ -5790,9 +5798,9 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B116" s="1">
         <v>3</v>
@@ -5801,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E116" s="2">
         <v>44020</v>
@@ -5840,9 +5848,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B117" s="1">
         <v>3</v>
@@ -5851,7 +5859,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E117" s="2">
         <v>44021</v>
@@ -5890,9 +5898,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B118" s="1">
         <v>3</v>
@@ -5901,7 +5909,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E118" s="2">
         <v>44022</v>
@@ -5940,9 +5948,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B119" s="1">
         <v>3</v>
@@ -5951,7 +5959,7 @@
         <v>4</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E119" s="2">
         <v>44023</v>
@@ -5990,9 +5998,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B120" s="1">
         <v>3</v>
@@ -6001,7 +6009,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E120" s="2">
         <v>44025</v>
@@ -6040,9 +6048,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B121" s="1">
         <v>3</v>
@@ -6051,7 +6059,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E121" s="2">
         <v>44026</v>
@@ -6090,9 +6098,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B122" s="1">
         <v>4</v>
@@ -6101,7 +6109,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E122" s="2">
         <v>44077</v>
@@ -6140,9 +6148,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B123" s="1">
         <v>4</v>
@@ -6151,7 +6159,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E123" s="2">
         <v>44078</v>
@@ -6190,9 +6198,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B124" s="1">
         <v>4</v>
@@ -6201,7 +6209,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E124" s="2">
         <v>44079</v>
@@ -6240,9 +6248,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B125" s="1">
         <v>4</v>
@@ -6251,7 +6259,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E125" s="2">
         <v>44080</v>
@@ -6290,9 +6298,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B126" s="1">
         <v>4</v>
@@ -6301,7 +6309,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E126" s="2">
         <v>44081</v>
@@ -6319,9 +6327,9 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B127" s="1">
         <v>4</v>
@@ -6330,7 +6338,7 @@
         <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E127" s="2">
         <v>44082</v>
@@ -6369,9 +6377,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B128" s="1">
         <v>4</v>
@@ -6380,7 +6388,7 @@
         <v>7</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E128" s="2">
         <v>44083</v>
@@ -6419,9 +6427,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B129" s="1">
         <v>5</v>
@@ -6430,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E129" s="2">
         <v>44078</v>
@@ -6469,9 +6477,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B130" s="1">
         <v>5</v>
@@ -6480,7 +6488,7 @@
         <v>2</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E130" s="2">
         <v>44079</v>
@@ -6519,9 +6527,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B131" s="1">
         <v>5</v>
@@ -6530,7 +6538,7 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E131" s="2">
         <v>44080</v>
@@ -6569,9 +6577,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B132" s="1">
         <v>5</v>
@@ -6580,7 +6588,7 @@
         <v>4</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E132" s="2">
         <v>44081</v>
@@ -6598,9 +6606,9 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B133" s="1">
         <v>5</v>
@@ -6609,7 +6617,7 @@
         <v>5</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E133" s="2">
         <v>44082</v>
@@ -6648,9 +6656,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B134" s="1">
         <v>5</v>
@@ -6659,7 +6667,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E134" s="2">
         <v>44083</v>
@@ -6698,9 +6706,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B135" s="1">
         <v>5</v>
@@ -6709,7 +6717,7 @@
         <v>7</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E135" s="2">
         <v>44084</v>
@@ -6727,9 +6735,9 @@
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B136" s="1">
         <v>1</v>
@@ -6738,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E136" s="2">
         <v>43970</v>
@@ -6777,9 +6785,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B137" s="1">
         <v>1</v>
@@ -6788,7 +6796,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E137" s="2">
         <v>43971</v>
@@ -6827,9 +6835,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B138" s="1">
         <v>1</v>
@@ -6838,7 +6846,7 @@
         <v>4</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E138" s="2">
         <v>43973</v>
@@ -6877,9 +6885,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B139" s="1">
         <v>1</v>
@@ -6888,7 +6896,7 @@
         <v>5</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E139" s="2">
         <v>43974</v>
@@ -6906,9 +6914,9 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B140" s="1">
         <v>1</v>
@@ -6917,7 +6925,7 @@
         <v>6</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E140" s="2">
         <v>43975</v>
@@ -6935,9 +6943,9 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B141" s="1">
         <v>1</v>
@@ -6946,7 +6954,7 @@
         <v>7</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E141" s="2">
         <v>43976</v>
@@ -6964,9 +6972,9 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B142" s="1">
         <v>1</v>
@@ -6975,7 +6983,7 @@
         <v>8</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E142" s="2">
         <v>43977</v>
@@ -7014,9 +7022,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B143" s="1">
         <v>2</v>
@@ -7025,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E143" s="2">
         <v>44028</v>
@@ -7064,9 +7072,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B144" s="1">
         <v>2</v>
@@ -7075,7 +7083,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E144" s="2">
         <v>44029</v>
@@ -7114,9 +7122,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B145" s="1">
         <v>2</v>
@@ -7125,7 +7133,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E145" s="2">
         <v>44030</v>
@@ -7164,9 +7172,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B146" s="1">
         <v>2</v>
@@ -7175,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E146" s="2">
         <v>44031</v>
@@ -7214,9 +7222,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B147" s="1">
         <v>2</v>
@@ -7225,7 +7233,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E147" s="2">
         <v>44032</v>
@@ -7264,9 +7272,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B148" s="1">
         <v>2</v>
@@ -7275,7 +7283,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E148" s="2">
         <v>44033</v>
@@ -7314,9 +7322,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B149" s="1">
         <v>3</v>
@@ -7325,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E149" s="2">
         <v>44072</v>
@@ -7364,9 +7372,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B150" s="1">
         <v>3</v>
@@ -7375,7 +7383,7 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E150" s="2">
         <v>44074</v>
@@ -7414,9 +7422,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B151" s="1">
         <v>3</v>
@@ -7425,7 +7433,7 @@
         <v>4</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E151" s="2">
         <v>44075</v>
@@ -7464,9 +7472,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B152" s="1">
         <v>3</v>
@@ -7475,7 +7483,7 @@
         <v>5</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E152" s="2">
         <v>44076</v>
@@ -7514,9 +7522,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B153" s="1">
         <v>3</v>
@@ -7525,7 +7533,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E153" s="2">
         <v>44077</v>
@@ -7564,9 +7572,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B154" s="1">
         <v>3</v>
@@ -7575,7 +7583,7 @@
         <v>7</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E154" s="2">
         <v>44078</v>
@@ -7614,9 +7622,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B155" s="1">
         <v>3</v>
@@ -7625,7 +7633,7 @@
         <v>8</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E155" s="2">
         <v>44079</v>
@@ -7664,9 +7672,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B156" s="1">
         <v>3</v>
@@ -7675,7 +7683,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E156" s="2">
         <v>44080</v>
@@ -7714,9 +7722,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B157" s="1">
         <v>4</v>
@@ -7725,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E157" s="2">
         <v>44091</v>
@@ -7764,9 +7772,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B158" s="1">
         <v>4</v>
@@ -7775,7 +7783,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E158" s="2">
         <v>44092</v>
@@ -7814,9 +7822,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B159" s="1">
         <v>4</v>
@@ -7825,7 +7833,7 @@
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E159" s="2">
         <v>44093</v>
@@ -7864,9 +7872,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B160" s="1">
         <v>4</v>
@@ -7875,7 +7883,7 @@
         <v>4</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E160" s="2">
         <v>44094</v>
@@ -7914,9 +7922,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B161" s="1">
         <v>4</v>
@@ -7925,7 +7933,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E161" s="2">
         <v>44095</v>
@@ -7964,9 +7972,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B162" s="1">
         <v>4</v>
@@ -7975,7 +7983,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E162" s="2">
         <v>44096</v>
@@ -8014,9 +8022,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B163" s="1">
         <v>4</v>
@@ -8025,7 +8033,7 @@
         <v>7</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E163" s="2">
         <v>44097</v>
@@ -8064,9 +8072,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B164" s="1">
         <v>5</v>
@@ -8075,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E164" s="2">
         <v>44106</v>
@@ -8114,9 +8122,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B165" s="1">
         <v>5</v>
@@ -8125,7 +8133,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E165" s="2">
         <v>44107</v>
@@ -8164,9 +8172,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B166" s="1">
         <v>5</v>
@@ -8175,7 +8183,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E166" s="2">
         <v>44108</v>
@@ -8214,9 +8222,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B167" s="1">
         <v>5</v>
@@ -8225,7 +8233,7 @@
         <v>4</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E167" s="2">
         <v>44109</v>
@@ -8264,9 +8272,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B168" s="1">
         <v>5</v>
@@ -8275,7 +8283,7 @@
         <v>5</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E168" s="2">
         <v>44110</v>
@@ -8314,9 +8322,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B169" s="1">
         <v>5</v>
@@ -8325,7 +8333,7 @@
         <v>6</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E169" s="2">
         <v>44111</v>
@@ -8343,9 +8351,9 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B170" s="1">
         <v>5</v>
@@ -8354,7 +8362,7 @@
         <v>7</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E170" s="2">
         <v>44112</v>
